--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/23_Çankırı_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/23_Çankırı_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{79F4792B-2A04-4B9E-A97E-250591D3C13A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{DB8C7EB4-21E6-4FBA-B8C0-BCF7253C9FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C13B560B-08E7-46FA-B9C2-2FEA7DC7FA30}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{939A514A-71C6-4851-B47B-24EDCB6A94A3}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{F9D3A092-AA3D-4846-B60B-06A2FCC6A497}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{EEBE3B78-0944-46A3-A999-21ECBEB9B246}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{B5ACB2B8-AABF-419B-AA86-FD4D87DDDFA4}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{7AE86BC8-07D2-40C2-BDF8-846CE33EB5A9}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{FCC384A3-0127-4643-8F90-3BB089A25A34}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{44D5A2CF-2A35-46E9-8010-25F25C42CE41}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{1FC9D04E-CCFA-41C8-BA3F-96A7D122E9DD}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{CEDB5212-E3EC-4A36-BD7A-BE1B505C8D75}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A22AFB-BB96-42E6-9751-89F7F46EB8B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D94D4B-5040-41AA-A5F4-94095C3D6E37}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2419,18 +2419,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{BA40C86D-A20F-45BE-9C92-B8098B4FDFD2}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2B9449D1-ABB7-4162-B332-DAAE9C4F3C37}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{1F80C3BE-B892-49BD-BA69-3925B85810BF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{BE170DCA-95CF-4C89-8CC3-243233439CF2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{286EC313-A38F-46DD-A404-581931A4FFC8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7F5C05B6-D038-47D8-88E9-3C8D35D679C5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D0680DC0-0DED-4CB2-80C6-B6B2D7FCDDA7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{6140A371-CAFB-4B48-9B36-FBA3AA1BEF49}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{A4CDCB21-FDF9-40E9-BFA4-CADEF339220B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{9702D812-1D41-430D-B604-A82B406555D4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B40C7F7C-3B7E-451C-AE5C-5DF90740174B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{ED935C21-8BEC-4A07-8DCD-D444DE026CA5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{BD0FF5BA-015D-4AF6-B3CE-35CE50E066B3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{0C76424A-A4FA-4E00-B87D-2B4CC5164865}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{2CBCC215-0BB3-45C2-8F4A-6E937DEE991F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D8AF77FB-86DA-413E-B38E-34E21C3A4642}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{8162E45C-C300-4189-A345-E4731AD6A1BA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{A6160E7E-38BE-4B54-A948-5BA51475BD91}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A2C62782-BDFE-4376-B6A1-80494ECA2840}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{592ECEEC-B9AC-4D1D-AF2F-CAEBE45AF327}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D438843A-1E29-4EEE-BE95-BB87FB7D6737}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{76CAEDD3-A992-4C85-96BD-82B1E9F54BC4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{CD955134-835A-4461-B0FE-1F689D613A67}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{A371E56B-E83A-4E44-B05A-37D461E44CC3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2443,7 +2443,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F69F6F-8A74-488C-8CFA-0A4035BA2231}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B5BEA5-F1C2-4EC0-9CC0-32ED00BB5093}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3608,18 +3608,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{FE82086D-8BE4-45B0-BF85-167EF4EA95BE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{BF340959-7889-4155-A697-63D85973D75E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{AAC852EE-FE56-468E-A459-F367B1C06C29}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{2F14F53D-1CEC-4338-B957-0DB5B5D7649F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{2FB5753B-3D01-44B4-91C1-384BF9BBFD8D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{89E23AD5-6D19-4901-9829-E620A3FE3408}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{BF183F0B-1039-4EF7-B2B8-77AE5A3650A6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{036B5A65-81AD-49BC-AC16-9641DA82E42F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{789632BC-AA5A-43FB-B67F-CD94C9C7CE5D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C1112D1B-E384-4017-ADDD-217A4B65C268}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{49A34E24-416A-427E-B67B-68F7B76D21D4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{6CD65258-C814-4F9E-B2F4-C406246F1BFA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2DAEC163-0FB3-4F16-9159-196F39ECC919}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E068AB20-1056-4438-AA62-23A7101AECC7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{DF26D990-D5EB-42B2-90FD-871E24F17EC1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{91408BDD-5C56-461B-85FC-CE06FC9899A4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{AF8E55E5-9006-49BF-A947-C578A0F98045}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2D0B9F98-9AD8-4329-AD3B-AB2BC6E525DB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{E144B7D2-54AA-43AA-A046-3C70854ACDA4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{B61EC76E-C39B-473B-905A-49F1F2BBDC8F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{A8514507-33EE-47FB-B05B-E0C2DC8DC35E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2ADCC48F-E715-4A5B-8B3C-FFCC9DE307DD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F9DD5A0A-10E3-4DB5-AF5D-EEB891234193}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D46A1782-190C-4FD0-8E20-B13D0FCE3E8A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3632,7 +3632,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F9BC5DC-BDA2-4848-B0DB-7A3CAB09076D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54113AB6-BD54-4774-B75E-5AFC814204C0}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4797,18 +4797,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{831E2B82-4295-4C8D-AF71-710932F05B78}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{8E150257-EA04-4F0B-9624-E4F5EC974CB4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{FED00530-E7D4-4316-9B9D-CB185F35DE85}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{BE5CD66D-CDF8-4342-9243-B168093DA0E0}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{4BA9548E-CA37-43DC-9309-6FB6E6377956}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{ADF46F95-26E3-43CE-B4E1-DC5E25453E3F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A9012005-F9E0-494B-B123-F27EC1629CED}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{181E6295-1459-45CC-9527-A1AE0A0211CD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F7E22A0E-E9F5-4DDB-BAAD-97C2DE89A23A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F9517748-1796-4247-B57B-33AF2E6DA622}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{29190DC1-10E6-456D-97F2-5532313953BD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C78D22F6-3DF2-45B5-8C4B-E5FB23024619}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{EED8DF0A-190F-45CE-89B1-F4C74685C340}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C42D352F-C2B0-4CCA-94F8-46DF77B3F9FB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{4CDC628C-C9BC-4056-A935-A26848B7B6FC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{56985583-02B3-4940-8D16-27316004C1E7}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{86FAEE93-BE12-4EA5-A32F-8211EBEA1555}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8482DA68-F86E-4279-A1C2-5D90A3FC6FEF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6272649F-597F-49ED-B9CE-AED7BEA25862}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{15DF08A2-6B16-4FB0-98FC-5121F41E3EAE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{A346744E-13FA-43B8-87A6-030970FF3BCB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E066AFC5-0FCD-4D84-B274-2BC2FE35B1BC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B183BE3E-B38B-49E0-98A6-85D49024571F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{1D1A9D47-8D81-40DD-A3A4-C11C3AB939A0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4821,7 +4821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{441DBA7C-7608-4E7F-B23E-E38C82CE2671}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A42E1FE-C22C-4E3A-932A-79104C13384B}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -5980,18 +5980,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{B72897BD-9116-438E-B76C-C5A87F6AED90}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{06A2B14A-C1E9-4C49-BF98-12B487F42966}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{12E65D1A-D19B-4811-948E-A81C9FF7B2C4}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{C619D52A-9958-42F4-894F-61547FC3C72C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{DF43A803-3334-4EE5-A3A8-8E92740DD992}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{5C636D4A-6168-4505-8015-AF81C2AB07C3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4A8AEF04-31BF-461A-A3D0-63727A20CF9F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{999A0F48-FD4B-4CA0-A2ED-77EF274437A9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{3B50BDEF-B7DD-4191-96BA-DF8C15240B55}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{B5344465-E90F-44CE-A9B7-A3C49CEC7C93}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{4380C91B-D527-453F-B56F-B2E6A2779B54}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{96D4E31E-F605-458A-8DC8-40074C584959}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{1CF5E984-1DCE-414D-BB35-4F1606FD4BF1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{A3DA42D4-4BCA-4B12-90A0-D426BF64515E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{74C3097D-53C4-46EC-A32E-9B35C3145381}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{36F58307-5471-46D1-9919-B7FF87BBA61E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{C0295866-A496-4B6E-B834-965B4EA9FD39}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{2B0725E9-4925-4095-826C-E71E72280140}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{F8E97394-B7EE-4084-8A14-18EA8E93143A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{E327FA95-8C35-4778-A35F-5DA169EED5B3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{C8901027-9EDE-4657-86F6-1A9B6052719B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{BA4240A7-7966-4133-AB0E-F897C6B92079}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{5CE1C437-89D9-4813-B111-081D76CFFDAE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{C1324DAA-9973-4043-9C40-3E14A457099F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6004,7 +6004,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E15CB5D-AAB9-4234-8DF1-9E7CCDF0C793}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B5F94B-13A7-44E1-9FDF-1EF2B5E9D446}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7191,18 +7191,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{3870870E-FBA5-4C81-8D1E-7F55AD69E972}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{357CAD97-BF4F-4C67-9DD7-C87903F367BF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9F926D4B-B383-4179-9999-55B1AD21ED9D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D6FD011E-D63D-4628-8B96-9F27EF138DF6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{88839BF0-BABD-44AB-A04C-00FA9CBD7D46}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{54647F08-B216-4017-8EEB-3BD9A1EAA9B6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6429381F-D31D-4FB0-A7FB-EC7B2467ADE0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{408B908A-E8B6-4B93-A088-0A416B104880}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{A01FB950-ED02-4A28-B3F5-0685C07DAEF8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{CBBFD54D-A818-4A4C-A9A6-751D59D7CF74}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{CA9CD900-7EDC-49C4-8E29-D377C4263863}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F57BEB2C-58DC-42A2-BCAC-2BAE10DE08D6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2F856D61-6855-4BF2-87AC-88D47DBF0E8B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{E95C4E34-CA5D-478A-8270-FB9E99D48FF1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D416CF3B-AF3F-4819-8991-EF4274B3D60A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{AE9E4BFB-F866-4E11-8E69-AA4014865390}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{BD39280D-2069-4D25-900C-C2BAE127B459}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{FA512F6D-DACA-465B-8D5E-D95DE2145C10}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{1E98E73F-0EEC-4A63-84D2-E682EFE75456}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D3D65972-8F2D-4F61-9777-9AA122022B66}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D7923550-8913-4D68-B8A0-03EB27E494F2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{28796383-C628-4685-A638-57081B909838}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{EEAF2273-BFFF-4C51-9CC0-FAC6CAA604A6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{484DAAFD-542E-44C3-99FC-059520966469}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7215,7 +7215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AD8FF0C-EB94-455F-9AF2-E44F516BAF52}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{539EBA33-4FFB-4EB5-8623-BADABDDEA9A9}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8398,18 +8398,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{856D6E61-1FFC-4A0F-B29A-ED830DCCDDB9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{1D94BB92-452D-4561-A8DF-9633D02FA8A7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A5FAB53B-D349-4FFB-9E2B-15599D7BA10E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{A933DA61-1680-4EF9-A672-E251E55A57AF}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B377C714-8F28-4D80-99BF-B9087EDB8095}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8E4052EA-B722-4DDB-905D-5DB5FF282692}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{29EA5933-6BA3-4F89-AF3A-31F633296FB1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{3F8B4AD2-FF60-4249-9433-F6B2A9397528}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{60586699-72FE-4E19-9C09-4CFA8B036285}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{37A71924-8824-4304-9760-4873ECABF2F0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{461736F9-E59E-4559-B298-9F036FC72F27}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D923910C-2DEE-4770-A929-0873EE6FE6BE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E4D404BF-B9E9-4301-872F-D15F81F05602}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{3E33913E-38BD-44BB-8C62-96A023A7ED65}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{A7387994-6A8D-4A2D-91B2-C98CFD0F59D4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{AC22B143-D479-4420-B663-35DA0DC4576A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{96233D5A-0669-4ACC-A752-E51C640AF334}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{71491786-58EC-467E-9847-A03E575EC4C9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6ECBF1B7-E264-444B-8535-D8BA24C04BB3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{23EDAA41-72B7-402B-92E0-F7CF8DDF8CFA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B974D652-5638-4283-8DF3-1C1E51C228C6}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{8FCE6637-C7D2-4553-BA16-B5FA7D80EE90}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{BF552D75-7E43-4014-BBB7-0A2D73E70AB4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{1E247497-3B65-42C6-99BE-07EDAF640741}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8422,7 +8422,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C6297E-24B6-4ED9-BDB6-E521C029D123}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF241905-FCE0-4DEE-A4D7-A08009F4C7FD}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9605,18 +9605,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{3A2B4731-7AFF-4A0A-BCAA-C7D5198BB0A0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F3EB1A79-87AA-402F-B1F0-47F681C44B84}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{677C3533-D289-4F1A-BC38-3ECB21FE9035}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1171021A-CC53-4CFE-8BA3-CF5DF23573F8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{244CE279-5AAC-446B-8C0D-873A8BC83CB3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{EEC6B24A-FA5E-4463-AB59-92D4FFA1F280}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{157617B0-68F2-4292-AB3F-462922AC4927}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{E50ADAB0-E136-4FE2-AFFD-0030C81AFCF6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{21D6A9D8-A775-4C2F-9221-9CD7CA74098A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{9278E3F2-746E-461F-9293-21A71D0B65F1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{9FDC9AAA-60E4-4DAE-B7BD-E52DC905F148}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{776470B8-07A3-4D3F-B721-7096731EC74E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D69ED563-5AE8-452B-B896-A46C455BE226}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{56CB687D-5BFA-4A8A-AB76-4987ADE18D73}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{69A747C1-EBAA-43B1-B278-D571E71234E3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1A6EB529-2C38-49FB-8A44-25852E43099C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{E000DCC5-4375-42BD-AB00-0091EAA62505}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{CA92D1B0-F37B-41EF-B832-5B8F1D141155}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{DCD1DDF1-974B-4BA2-B4FD-5BB4AFE842B0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{1EDC90C9-94A2-4838-A5CE-4EB99368926E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{8D6692E4-C583-42AB-91CA-9DBFDE35D50B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{973BE512-865C-42DE-85C4-43DAED25EDBB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{8A1283EF-817C-40F5-881F-08C3A224780B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{AB32BEB7-B80B-43A2-9599-47829037912C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9629,7 +9629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{261A3B52-F814-4336-8C89-B47C286B3267}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C15AF119-DB6A-45A4-82FC-C30A632DB71C}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10812,18 +10812,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{28678FB2-A0A2-4F7B-AA04-3457D2363BBF}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B44C081C-D7DC-4286-89F3-542DCA4035EC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{5DA24D59-997A-4F7B-97D0-CE3300120A62}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{DCE0A10F-D3F5-44EE-A46A-39FBC6CB4776}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{5593CACC-01A7-439F-BA94-2CEC29A0A82B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{9A83DDD6-0FB2-443F-9BE0-A4EF9C321906}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{A1506854-EF11-4166-9006-29BCC37B62D8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{35D3FD08-1885-4D3B-9C17-CA2315118302}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{64082D6C-B2E3-403C-A8CE-054DE1B3C0F3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{341273F2-A200-4C05-B808-ACA74C7DEA16}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{8EA7FA79-6EFF-415B-8934-ACC9A06841BC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{8B5ACB88-9D45-4D91-9C39-EB295105EB83}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{7450059F-13C9-4067-BD4A-FB98593F40E1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{8D3FCD42-25CC-4C65-AA87-1B2E1BE9B282}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{40A91972-2080-45A7-AE80-FA041437D7F5}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{3ADC6665-1A00-411B-8B89-C9817BF56968}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{0DAF39B7-9974-4F9A-9D78-C23EB68805DD}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{89DC974A-7A0D-4E9E-A6C0-69F874FC7066}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B04AB061-8D60-4AAB-836F-6B1D82DF91D5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{8AA02150-D37E-4A30-A04B-E43EA0EEE146}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{332761FC-8362-4E56-B2DC-FED975CD4CD9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C00CA4E6-37D5-44EC-A66A-ADFD095F04CF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A8A2E0AA-01C2-4615-BF4D-299B3341F62A}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7FF6CB60-8643-41C8-B4D9-582B69767CB2}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10836,7 +10836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EAC27CB-AD5D-4821-AFC6-6538C431D7AD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C2B9204-2E41-4A75-894F-DFE97BDC75F3}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12019,18 +12019,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E6883511-A06C-4C73-BFBE-6A758C8850F1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{47CF40B8-17E0-4181-A8F4-18275931A8F7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{3942878B-DA8D-40D5-B057-A10C3036A203}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{C48E4244-E4FF-479F-9065-7D773E11E0BB}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{DF4C2900-3C46-4512-A44C-39A10C6A002E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{089EFE29-3970-403F-B5FF-88C5311837AA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{85290E86-F846-4B4F-B96C-041F16510C0E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{B4918B5B-3862-42A5-ABE7-4F26B292705F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E06A8912-0D00-4807-8E4B-4A0534D4862E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{8D6F1CCB-E711-45F6-83FF-BFBB870DEFD5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{BFD5BC50-C027-4738-8D0D-D337ECA096ED}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{329C4729-4AFF-4DF3-AF8F-B3F259959869}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{AF91CCAB-22F4-4508-B1C6-537F441C2D0A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{EEB7E3C7-73A3-433A-82AB-D4DA4729700F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{9024B838-1193-469B-9C11-0E63C2F88CAE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{7303E070-289E-4AAD-9181-6745BB1A76EE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{8DE2C233-77C5-42B4-9B8E-39F42D475BBB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{E99F68CD-1C9F-4B88-ADD5-6705976CB1EB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{75C6EC5E-C623-4231-9F77-84E173C74971}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{901F6296-56D9-4CDC-8AF1-11838D1DCE2B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{3D3BB969-09B6-4A9C-B959-F32EFEE1FC42}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{88D15791-29D2-4F1E-8885-1CCA6E784D80}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{0A5F44D0-A324-4AAB-A457-72154C7DDFBD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{102A5292-A2A6-4E49-AB19-DEE9D16204BB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12043,7 +12043,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D33D245-EFD9-44C5-A486-E4E57063BA1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90189FF8-9D81-4A6A-8DDE-151BF3406A36}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13226,18 +13226,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{AEABC3C0-ED38-48F4-9B3F-C8795D89CD3D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{CD99ADCA-F51E-4792-9FF2-C851A4943A17}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{57095EA5-0D84-48A2-B9EA-7C7D39ABA410}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{F6A45925-A3E5-4974-9355-D569A9E863FA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{64FEE6C3-793E-4526-A010-42A94BCB994F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{C23FF269-F990-48CA-B082-84E7592CF145}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{2E0149DC-6B41-4D82-88AA-262DECC14338}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{799535F8-3E71-468B-B949-570FC13F0093}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{7304B2A6-5640-4266-A586-FC5E393DEF40}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{71FA0470-C5CB-431F-941F-9F468A018C30}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{7704736F-9800-4F3F-A774-872B0A1909CE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{4D0BA59E-694C-48E4-90BE-6D963444830D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A9336A15-7F06-4117-9862-D6E800436162}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{BDA172A5-0791-47A1-9B94-3517A2F16789}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{68ACD0BA-B791-4595-9040-1E6E7EC78A41}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{4E56E64C-1C86-4B92-8D2C-BDE54A1B6E73}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{59EA9AB1-DD1B-495A-9F07-3119203FCA3D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{658D0B86-6898-4906-A253-11F515CB596D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{59B4023A-DA84-4F26-BEFC-5B7EF604684F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{2605E685-813F-437B-9A0C-AC1E2DD4EE0D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E19D006F-210A-4F95-8769-3A6661D32BAF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5777D0CB-1BAE-4916-9C1B-F53EF28D5176}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{BE64622D-2C7C-4D62-94FC-5749AE44C936}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{421805CD-8B3A-49FE-972C-E223C730169E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13250,7 +13250,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FEE34B6-5609-4431-9E0F-A539C46529A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A172C9D0-9062-4C0E-9C6B-2718CE39B4C7}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14429,18 +14429,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{28235541-032F-40B0-B1A5-C06F3D4DFF77}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{BA6BC8EF-5D9A-411B-B1CF-EA5C6C36D21C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{5A5FC457-9503-4F1E-8084-FE9E0BC22C1B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{DF6BA0CF-0B38-4257-B691-EF614BC07451}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{B1C78017-B406-4042-A156-6273232FCBBA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{48F40781-AB65-4B66-A967-A62B4772AEE5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{1BBA9994-E5DA-4EB1-8143-37A84F175EF8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{D7E3D983-EE20-4897-B4B8-F0BC34D13F4A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{3AAACEAA-91E7-4B23-B2EF-370177176002}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{FF4F7D3B-487F-4072-B669-E4B2E3000B29}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{CB890C07-2731-47A7-B68E-4794D219ADD7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{2A10C135-26DD-4D9D-B5DA-9CBFC1D02FDD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{BA17F0CE-B790-47F9-8261-C52CED513D64}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C9E92CBB-28C4-49BE-91AD-9D755F64291B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{3D6E58E3-0ABC-4790-BCD3-A4F1000F01EE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E68AD7AD-EF36-4BC9-954E-72544862F0FE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{59C032BA-E728-4FC5-A8C7-329E0CAF18F1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{26A86A90-9F84-4998-96FC-526A6E5C79A0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C0A374DB-ADC9-454F-8DD5-77FCD33C9A4E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{771BF5C9-2855-4283-80F4-A220F9F4A295}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{FA46D694-2411-48B2-B488-32089272959F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{685515D1-E101-4EF6-A679-00C94777A6B7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F27A1ECB-B898-410F-AEEE-77E5266DE90C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{0E07DA6D-156B-4DA0-975B-AEAF01B470FA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14453,7 +14453,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FFA272E-841A-48DA-85AA-3C9894410449}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D95EA042-467B-4956-B082-888317E44072}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15628,18 +15628,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{71FBF681-7D8D-4A24-BF27-D29A8AA6C746}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{EFA25E91-F760-4251-A6A2-AF1B7F08B9E9}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{010B8FA7-0C40-4885-9EAB-A0E46452DD3A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{CD62DC24-DDF3-45CA-9A00-97E4CF1AEF40}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F0799A15-8328-4CCF-AEF0-9A3CD54FF9B2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{1BCD6D09-05BE-43AE-8892-A638CCA6110C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{FEEBC902-4612-4584-BF4E-2C45B5193000}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{25C65472-3112-42E9-92CA-AA650560683E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{0F859787-3C8F-4C45-B664-736DC5310B9E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{539995E4-1D67-43BD-818D-EE5A8E58C199}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B189C274-D50D-4AB5-9E6B-D05FDA128467}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{D4E71F65-164E-4B9F-81EA-53978C855917}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A67F12EF-1356-453D-BCF9-19B2AC18F306}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{09F730A3-7762-4F08-8BC4-C6D2F71001F3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{2F1A7023-4D6A-4397-B61D-2508DEDE88D6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{6C9EF3D1-22AA-4013-87B4-430BC19CD189}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{43EDAA0D-709A-4330-8722-B9E4B3F8B0F4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{B61DA37B-162E-4772-B123-50A41D871B52}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{705AB10B-D964-4481-A8D5-4625B1EB42F3}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{AF272874-0632-432A-9576-00AAC6FB63AA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{EA412759-7AAD-4F13-94B5-026C664ECCF5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2DB704BE-2127-46D1-87C9-217606939AAC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{4A62CE84-800A-41EB-968C-EFDE05055B57}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{82C55C24-F0D1-42C6-B46F-05F1ECBF1374}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
